--- a/data-raw/layers.xlsx
+++ b/data-raw/layers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_packages\envRaster\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\nige\packages\envRaster\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7485276D-87B8-47CF-80CA-EB78B2CF8D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA17AE-3198-4F9A-A531-3CF3E301D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>deg C</t>
   </si>
   <si>
-    <t>monthly class A pan evaporation for the Australian continent from 1970 to present</t>
-  </si>
-  <si>
     <t>maximum</t>
   </si>
   <si>
@@ -228,36 +225,21 @@
     <t>https://dx.doi.org/10.25914/60a10b02a7ea8</t>
   </si>
   <si>
-    <t>monthly total rainfall for the Australian continent from 1900 to present</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.25914/60a10acd183a2</t>
   </si>
   <si>
-    <t>monthly vapour pressure deficit for the Australian continent from 1960 to present</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.25914/60a10af667bbe</t>
   </si>
   <si>
     <t>data_ref</t>
   </si>
   <si>
-    <t>monthly maximum temperature for the Australian continent from 1960 to present</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.25914/60a10addedcf8</t>
   </si>
   <si>
-    <t>monthly average temperature for the Australian continent from 1960 to present</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.25914/60a10ae960313</t>
   </si>
   <si>
-    <t>monthly minimum temperature for the Australian continent from 1960 to present</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.25914/60a10ae350889</t>
   </si>
   <si>
@@ -283,6 +265,24 @@
   </si>
   <si>
     <t>https://explorer.dea.ga.gov.au/products/ga_ls9c_ard_3, https://explorer.dea.ga.gov.au/products/ga_ls8c_ard_3</t>
+  </si>
+  <si>
+    <t>monthly class A pan evaporation</t>
+  </si>
+  <si>
+    <t>monthly total rainfall</t>
+  </si>
+  <si>
+    <t>monthly average temperature</t>
+  </si>
+  <si>
+    <t>monthly maximum temperature</t>
+  </si>
+  <si>
+    <t>monthly minimum temperature</t>
+  </si>
+  <si>
+    <t>monthly vapour pressure deficit</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>34</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -997,7 +997,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1035,7 +1035,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1073,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1111,7 +1111,7 @@
         <v>45</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1181,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,13 +1219,13 @@
         <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1257,13 +1257,13 @@
         <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -1295,13 +1295,13 @@
         <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>2023</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/layers.xlsx
+++ b/data-raw/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\nige\packages\envRaster\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF1CD1-02B7-4398-AC2F-7AC38B242A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A5BE3-74C0-4675-B912-1AA90D52EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>units</t>
   </si>
@@ -54,9 +54,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>µm</t>
-  </si>
-  <si>
     <t>blue median</t>
   </si>
   <si>
@@ -144,18 +141,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>nir and red</t>
-  </si>
-  <si>
-    <t>green and nir</t>
-  </si>
-  <si>
-    <t>nir and swir_1</t>
-  </si>
-  <si>
-    <t>nir and swir_2</t>
-  </si>
-  <si>
     <t>identify burned areas and provide a measure of burn severity</t>
   </si>
   <si>
@@ -285,10 +270,28 @@
     <t>normalized burned ratio index 2</t>
   </si>
   <si>
-    <t>swir_1 and swir_2</t>
-  </si>
-  <si>
     <t>more sensitive to changes in water content within vegetation than NBR, water stress</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>unitless. nir and red</t>
+  </si>
+  <si>
+    <t>unitless. green and nir</t>
+  </si>
+  <si>
+    <t>unitless. nir and swir_1</t>
+  </si>
+  <si>
+    <t>unitless. nir and swir_2</t>
+  </si>
+  <si>
+    <t>unitless. swir_1 and swir_2</t>
   </si>
 </sst>
 </file>
@@ -632,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,22 +651,23 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="102.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -672,421 +676,460 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>10000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>10000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>10000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>10000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
         <v>81</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -1097,28 +1140,28 @@
       <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -1129,28 +1172,28 @@
       <c r="G15" t="s">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
       <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1159,94 +1202,94 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1255,26 +1298,26 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
     <sortCondition ref="E2:E8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{2CBF51CF-B3D1-4956-9FBC-C189F465D57D}"/>
-    <hyperlink ref="L3:L12" r:id="rId2" display="https://explorer.dea.ga.gov.au/products/ga_ls9c_ard_3, https://explorer.dea.ga.gov.au/products/ga_ls8c_ard_3" xr:uid="{0FDF6F0C-2E30-4C97-BBA5-297B3EC06400}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{2CBF51CF-B3D1-4956-9FBC-C189F465D57D}"/>
+    <hyperlink ref="M3:M12" r:id="rId2" display="https://explorer.dea.ga.gov.au/products/ga_ls9c_ard_3, https://explorer.dea.ga.gov.au/products/ga_ls8c_ard_3" xr:uid="{0FDF6F0C-2E30-4C97-BBA5-297B3EC06400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
